--- a/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p3.xlsx
+++ b/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.02.2025\2 нед с 03.02.2025 по 17.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A555499-79D5-4AA4-A7F2-E40F52A5A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9573F5-05DB-44F7-8CF2-58053045B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{760CAD9D-0C8C-4B51-A28F-26AB52C7400B}"/>
   </bookViews>
@@ -488,10 +488,13 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
